--- a/LMFReports/Copy of 2021-0522 Membership Report(7447).xlsx
+++ b/LMFReports/Copy of 2021-0522 Membership Report(7447).xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcarr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcarr\source\repos\LMFReports\LMFReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9223D421-79D0-4284-8048-A97BCF817DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1370D201-494B-4BD8-A80F-B748A869E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4380" windowWidth="28800" windowHeight="17145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Export" sheetId="2" r:id="rId1"/>
-    <sheet name="3-Year Membership Report" sheetId="3" r:id="rId2"/>
+    <sheet name="3-Year Membership Report1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -459,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
